--- a/trained_models_old_clean/MLP/cardiotocography/results_table.xlsx
+++ b/trained_models_old_clean/MLP/cardiotocography/results_table.xlsx
@@ -504,11 +504,11 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.014098081586815765, 'beta_2': 0.1504884157773467, 'epsilon': 0.8735712718449334, 'learning_rate': 'invscaling', 'momentum': 0.2769161608365044, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.25404981712446695}</t>
+          <t>{'beta_1': 0.06389131085486015, 'beta_2': 0.4851419683386883, 'epsilon': 0.9765176446047024, 'learning_rate': 'constant', 'momentum': 0.33815895183684563, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.2317016264712045}</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.8949843260188087</v>
+        <v>0.8855799373040752</v>
       </c>
     </row>
     <row r="3">
@@ -540,11 +540,11 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.5553817511197982, 'beta_2': 0.7408615040451714, 'epsilon': 0.769773517554749, 'learning_rate': 'adaptive', 'momentum': 0.9205475833293032, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.7720568212000914}</t>
+          <t>{'beta_1': 0.17632288950017108, 'beta_2': 0.938221748178283, 'epsilon': 0.5058059117993652, 'learning_rate': 'invscaling', 'momentum': 0.4671194071688368, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.30417355738924656}</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.8557993730407524</v>
+        <v>0.8855799373040752</v>
       </c>
     </row>
     <row r="4">
@@ -576,11 +576,11 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.12914092473644753, 'beta_2': 0.6687387117714806, 'epsilon': 0.8959135612925455, 'learning_rate': 'invscaling', 'momentum': 0.5006920990205621, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.2861476039966042}</t>
+          <t>{'beta_1': 0.229046817885475, 'beta_2': 0.6847295177750642, 'epsilon': 0.525886126729427, 'learning_rate': 'adaptive', 'momentum': 0.8322388610488994, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.9048267078810679}</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.8761755485893417</v>
+        <v>0.877742946708464</v>
       </c>
     </row>
     <row r="5">
@@ -612,11 +612,11 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.33989100308262865, 'beta_2': 0.2381323969631391, 'epsilon': 0.5098902102881291, 'learning_rate': 'invscaling', 'momentum': 0.2536073790650063, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.9126706209463072}</t>
+          <t>{'beta_1': 0.4576806884327828, 'beta_2': 0.5903931811583613, 'epsilon': 0.856864921549361, 'learning_rate': 'adaptive', 'momentum': 0.09746868872548986, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.820767120701315}</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>0.8746081504702194</v>
+        <v>0.8871473354231975</v>
       </c>
     </row>
     <row r="6">
@@ -648,11 +648,11 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.946612751169439, 'beta_2': 0.6475340962509533, 'epsilon': 0.6639261533272113, 'learning_rate': 'invscaling', 'momentum': 0.5595705341197842, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.6004710432403803}</t>
+          <t>{'beta_1': 0.2013161956098951, 'beta_2': 0.5479705771835305, 'epsilon': 0.5191231866200975, 'learning_rate': 'adaptive', 'momentum': 0.0246199570564557, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.9944007896476794}</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0.8855799373040752</v>
+        <v>0.8526645768025078</v>
       </c>
     </row>
     <row r="7">
@@ -684,11 +684,11 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.35532987330372157, 'beta_2': 0.8199044149280549, 'epsilon': 0.5030941477966999, 'learning_rate': 'adaptive', 'momentum': 0.4892254993109375, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.45311076628522495}</t>
+          <t>{'beta_1': 0.05111926735386998, 'beta_2': 0.10397468759931923, 'epsilon': 0.6138236250432934, 'learning_rate': 'adaptive', 'momentum': 0.7255735341014894, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.7731100525054192}</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0.8887147335423198</v>
+        <v>0.8840125391849529</v>
       </c>
     </row>
     <row r="8">
@@ -720,11 +720,11 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.7746514249422546, 'beta_2': 0.7964955714083342, 'epsilon': 0.7807090265923036, 'learning_rate': 'invscaling', 'momentum': 0.72685102950692, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.03669141786941299}</t>
+          <t>{'beta_1': 0.432854773920062, 'beta_2': 0.7553505871711759, 'epsilon': 0.3957021771479389, 'learning_rate': 'adaptive', 'momentum': 0.5722519057908734, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.6800555694634123}</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>0.8981191222570533</v>
+        <v>0.8855799373040752</v>
       </c>
     </row>
     <row r="9">
@@ -756,11 +756,11 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>{'beta_1': 7.362573367298308e-05, 'beta_2': 0.2539858490904201, 'epsilon': 0.7483515060430702, 'learning_rate': 'constant', 'momentum': 0.9682855167608868, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.37554935508454257}</t>
+          <t>{'beta_1': 0.8689782231423873, 'beta_2': 0.20529362738332577, 'epsilon': 0.4244277865056076, 'learning_rate': 'invscaling', 'momentum': 0.0651214685488184, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.3240523212034009}</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>0.8510971786833855</v>
+        <v>0.8730407523510971</v>
       </c>
     </row>
     <row r="10">
@@ -792,11 +792,11 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.28254252745470015, 'beta_2': 0.6953619013990796, 'epsilon': 0.19861124423877946, 'learning_rate': 'invscaling', 'momentum': 0.08688567080227105, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.23989203008963}</t>
+          <t>{'beta_1': 0.8001098412276646, 'beta_2': 0.5199570020716536, 'epsilon': 0.6782006505888414, 'learning_rate': 'constant', 'momentum': 0.5820197920751071, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.5218483217500717}</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>0.8761755485893417</v>
+        <v>0.8934169278996865</v>
       </c>
     </row>
     <row r="11">
@@ -828,7 +828,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.9860054985757924, 'beta_2': 0.32708399264862975, 'epsilon': 0.7027269929350685, 'learning_rate': 'adaptive', 'momentum': 0.8552913450076486, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.23282429241813685}</t>
+          <t>{'beta_1': 0.6640009209479042, 'beta_2': 0.42263138572595504, 'epsilon': 0.19879194898555852, 'learning_rate': 'constant', 'momentum': 0.6495342241752968, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.8668609136593749}</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -864,11 +864,11 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.7544844029021169, 'beta_2': 0.11702474626133386, 'epsilon': 0.3558997110594858, 'learning_rate': 'invscaling', 'momentum': 0.4545898672304828, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.3474596681158475}</t>
+          <t>{'beta_1': 0.14454644832421407, 'beta_2': 0.16787447884661194, 'epsilon': 0.06437100980051019, 'learning_rate': 'invscaling', 'momentum': 0.20825325212148382, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.2153982043432382}</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>0.8887147335423198</v>
+        <v>0.896551724137931</v>
       </c>
     </row>
     <row r="13">
@@ -900,11 +900,11 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.8262029973985192, 'beta_2': 0.17031668652341375, 'epsilon': 0.7005474479755266, 'learning_rate': 'invscaling', 'momentum': 0.1979076029143242, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.05690645260383198}</t>
+          <t>{'beta_1': 0.3589121456430256, 'beta_2': 0.3990994114057741, 'epsilon': 0.30152904505158906, 'learning_rate': 'constant', 'momentum': 0.23223414217094274, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.9528706723868426}</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>0.8746081504702194</v>
+        <v>0.8495297805642633</v>
       </c>
     </row>
     <row r="14">
@@ -936,11 +936,11 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.8023409362111764, 'beta_2': 0.03714396089515617, 'epsilon': 0.7705495326661607, 'learning_rate': 'adaptive', 'momentum': 0.1648055898475378, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.13643236902046962}</t>
+          <t>{'beta_1': 0.0849909989586575, 'beta_2': 0.45227613022865165, 'epsilon': 0.9317328660123573, 'learning_rate': 'constant', 'momentum': 0.3114860684923213, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.6972742926194663}</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0.8808777429467085</v>
+        <v>0.8855799373040752</v>
       </c>
     </row>
     <row r="15">
@@ -972,11 +972,11 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.8023409362111764, 'beta_2': 0.03714396089515617, 'epsilon': 0.7705495326661607, 'learning_rate': 'adaptive', 'momentum': 0.1648055898475378, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.13643236902046962}</t>
+          <t>{'beta_1': 0.16350940116725574, 'beta_2': 0.25999228591183354, 'epsilon': 0.370846170726364, 'learning_rate': 'adaptive', 'momentum': 0.26810926491253906, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.039210539213897055}</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>0.8699059561128527</v>
+        <v>0.8526645768025078</v>
       </c>
     </row>
     <row r="16">
@@ -1008,11 +1008,11 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.16350940116725574, 'beta_2': 0.25999228591183354, 'epsilon': 0.370846170726364, 'learning_rate': 'adaptive', 'momentum': 0.26810926491253906, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.039210539213897055}</t>
+          <t>{'beta_1': 0.4192651384682998, 'beta_2': 0.8862791850867102, 'epsilon': 0.9327427835511165, 'learning_rate': 'constant', 'momentum': 0.1640043891105587, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.7473574586765804}</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>0.8871473354231975</v>
+        <v>0.8793103448275862</v>
       </c>
     </row>
     <row r="17">
@@ -1044,11 +1044,11 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.900106903707655, 'beta_2': 0.009365802526148359, 'epsilon': 0.10228756130139185, 'learning_rate': 'adaptive', 'momentum': 0.5024530743128972, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.898110969165408}</t>
+          <t>{'beta_1': 0.8689782231423873, 'beta_2': 0.20529362738332577, 'epsilon': 0.4244277865056076, 'learning_rate': 'invscaling', 'momentum': 0.0651214685488184, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.3240523212034009}</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>0.8526645768025078</v>
+        <v>0.8714733542319749</v>
       </c>
     </row>
     <row r="18">
@@ -1080,11 +1080,11 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.06297525137970737, 'beta_2': 0.555093593527375, 'epsilon': 0.009230833413054227, 'learning_rate': 'invscaling', 'momentum': 0.7851529120231378, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.5864101661863267}</t>
+          <t>{'beta_1': 0.8867323269570756, 'beta_2': 0.35414507380630195, 'epsilon': 0.8132998216596776, 'learning_rate': 'adaptive', 'momentum': 0.09067076824664133, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.3007589027504035}</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>0.8526645768025078</v>
+        <v>0.9059561128526645</v>
       </c>
     </row>
     <row r="19">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.6917796472506498, 'beta_2': 0.5660348527523685, 'epsilon': 0.26512410144850596, 'learning_rate': 'adaptive', 'momentum': 0.09394051075844168, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.9292961975762141}</t>
+          <t>{'beta_1': 0.38601463978525796, 'beta_2': 0.2891210581598599, 'epsilon': 0.1490866112283353, 'learning_rate': 'adaptive', 'momentum': 0.44286429476318045, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.9107117463268657}</t>
         </is>
       </c>
       <c r="H19" t="n">
@@ -1152,11 +1152,11 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.9860054985757924, 'beta_2': 0.32708399264862975, 'epsilon': 0.7027269929350685, 'learning_rate': 'adaptive', 'momentum': 0.8552913450076486, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.23282429241813685}</t>
+          <t>{'beta_1': 0.6784115250117865, 'beta_2': 0.8634171612435584, 'epsilon': 0.7500934013828031, 'learning_rate': 'invscaling', 'momentum': 0.31194499547960186, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.20984374897512215}</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>0.8808777429467085</v>
+        <v>0.8495297805642633</v>
       </c>
     </row>
     <row r="21">
@@ -1190,11 +1190,11 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.4887627777796243, 'beta_2': 0.7060789358082146, 'epsilon': 0.5446559959678442, 'learning_rate': 'adaptive', 'momentum': 0.826113660191025, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.7540524075873528}</t>
+          <t>{'beta_1': 0.8532607701645135, 'beta_2': 0.13468382704395232, 'epsilon': 0.9641242949523154, 'learning_rate': 'invscaling', 'momentum': 0.7298276355292675, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.7348137746305611}</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>0.9043887147335423</v>
+        <v>0.8542319749216301</v>
       </c>
     </row>
   </sheetData>
